--- a/biology/Médecine/Veine_épigastrique_superficielle/Veine_épigastrique_superficielle.xlsx
+++ b/biology/Médecine/Veine_épigastrique_superficielle/Veine_épigastrique_superficielle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Veine_%C3%A9pigastrique_superficielle</t>
+          <t>Veine_épigastrique_superficielle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La veine épigastrique superficielle (ou veine sous-cutané abdominale ou veine tégumenteuse) est une veine simple ou double de la paroi abdominale. Elle est satellite de l'artère épigastrique superficielle.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Veine_%C3%A9pigastrique_superficielle</t>
+          <t>Veine_épigastrique_superficielle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle rejoint la veine grande saphène près du hiatus saphène. Les valvules sont orientées pour que le flux sanguin y soit descendant.
 Elle contribue au réseau veineux abdominal sous-cutané qui communique avec le système cave supérieur via certaines veines thoraciques et avec le système porte via les veines paraombilicales 
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Veine_%C3%A9pigastrique_superficielle</t>
+          <t>Veine_épigastrique_superficielle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La veine épigastrique superficielle se dilate en cas d'hypertension portale.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Veine_%C3%A9pigastrique_superficielle</t>
+          <t>Veine_épigastrique_superficielle</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Images supplémentaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			L'anneau inguinal sous-cutané.
